--- a/output/1Y_P65_KFSDIV.xlsx
+++ b/output/1Y_P65_KFSDIV.xlsx
@@ -727,16 +727,16 @@
         <v>13.2487</v>
       </c>
       <c r="C2" s="1">
-        <v>13.2487</v>
+        <v>13.2222</v>
       </c>
       <c r="D2" s="1">
-        <v>13.2487</v>
+        <v>13.2752</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>754.7910000000001</v>
+        <v>753.2843</v>
       </c>
       <c r="H2" s="1">
         <v>0</v>
@@ -771,31 +771,31 @@
         <v>13.3991</v>
       </c>
       <c r="C3" s="1">
-        <v>13.3991</v>
+        <v>13.3723</v>
       </c>
       <c r="D3" s="1">
-        <v>13.3991</v>
+        <v>13.4259</v>
       </c>
       <c r="E3" s="1">
-        <v>754.7910000000001</v>
+        <v>753.2843</v>
       </c>
       <c r="F3" s="1">
-        <v>746.3188</v>
+        <v>744.829</v>
       </c>
       <c r="H3" s="1">
-        <v>10113.5206</v>
+        <v>10073.1439</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10113.5206</v>
+        <v>10073.1439</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>13.2487</v>
+        <v>13.2752</v>
       </c>
       <c r="M3" s="1">
         <v>0.4</v>
@@ -810,7 +810,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.0114</v>
+        <v>0.0073</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -821,31 +821,31 @@
         <v>13.5985</v>
       </c>
       <c r="C4" s="1">
-        <v>13.5985</v>
+        <v>13.5713</v>
       </c>
       <c r="D4" s="1">
-        <v>13.5985</v>
+        <v>13.6257</v>
       </c>
       <c r="E4" s="1">
-        <v>1501.1098</v>
+        <v>1498.1133</v>
       </c>
       <c r="F4" s="1">
-        <v>735.3751999999999</v>
+        <v>733.9072</v>
       </c>
       <c r="H4" s="1">
-        <v>20412.8419</v>
+        <v>20331.3456</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>20412.8419</v>
+        <v>20331.3456</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>13.3235</v>
+        <v>13.3501</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -860,7 +860,7 @@
         <v>-10000</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0149</v>
+        <v>0.0129</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -871,31 +871,31 @@
         <v>13.6955</v>
       </c>
       <c r="C5" s="1">
-        <v>13.6955</v>
+        <v>13.6681</v>
       </c>
       <c r="D5" s="1">
-        <v>13.6955</v>
+        <v>13.7229</v>
       </c>
       <c r="E5" s="1">
-        <v>2236.485</v>
+        <v>2232.0206</v>
       </c>
       <c r="F5" s="1">
-        <v>730.1668</v>
+        <v>728.7089</v>
       </c>
       <c r="H5" s="1">
-        <v>30629.7809</v>
+        <v>30507.4807</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>30629.7809</v>
+        <v>30507.4807</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>13.4139</v>
+        <v>13.4407</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -910,7 +910,7 @@
         <v>-10000</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0071</v>
+        <v>0.0058</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -921,46 +921,46 @@
         <v>13.3398</v>
       </c>
       <c r="C6" s="1">
-        <v>13.3398</v>
+        <v>13.3131</v>
       </c>
       <c r="D6" s="1">
-        <v>13.3398</v>
+        <v>13.3665</v>
       </c>
       <c r="E6" s="1">
-        <v>2966.6519</v>
+        <v>2960.7295</v>
       </c>
       <c r="F6" s="1">
-        <v>749.6364</v>
+        <v>748.139</v>
       </c>
       <c r="H6" s="1">
-        <v>39574.5428</v>
+        <v>39416.4884</v>
       </c>
       <c r="I6" s="1">
         <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>39574.5428</v>
+        <v>39416.4884</v>
       </c>
       <c r="K6" s="1">
         <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>13.4832</v>
+        <v>13.5102</v>
       </c>
       <c r="M6" s="1">
         <v>0.3</v>
       </c>
       <c r="N6" s="1">
-        <v>603.851</v>
+        <v>602.6455999999999</v>
       </c>
       <c r="O6" s="1">
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-9396.148999999999</v>
+        <v>-9397.3544</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.026</v>
+        <v>-0.0269</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -971,31 +971,31 @@
         <v>12.8469</v>
       </c>
       <c r="C7" s="1">
-        <v>12.8469</v>
+        <v>12.8212</v>
       </c>
       <c r="D7" s="1">
-        <v>12.8469</v>
+        <v>12.8726</v>
       </c>
       <c r="E7" s="1">
-        <v>3716.2883</v>
+        <v>3708.8685</v>
       </c>
       <c r="F7" s="1">
-        <v>785.1127</v>
+        <v>783.5319</v>
       </c>
       <c r="H7" s="1">
-        <v>47742.7843</v>
+        <v>47552.1454</v>
       </c>
       <c r="I7" s="1">
-        <v>603.851</v>
+        <v>602.6455999999999</v>
       </c>
       <c r="J7" s="1">
-        <v>48346.6353</v>
+        <v>48154.7909</v>
       </c>
       <c r="K7" s="1">
         <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>13.4543</v>
+        <v>13.4812</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -1007,10 +1007,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-10086.2644</v>
+        <v>-10086.0922</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.0248</v>
+        <v>-0.0255</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1021,31 +1021,31 @@
         <v>13.129</v>
       </c>
       <c r="C8" s="1">
-        <v>13.129</v>
+        <v>13.1027</v>
       </c>
       <c r="D8" s="1">
-        <v>13.129</v>
+        <v>13.1553</v>
       </c>
       <c r="E8" s="1">
-        <v>4501.401</v>
+        <v>4492.4004</v>
       </c>
       <c r="F8" s="1">
-        <v>768.2432</v>
+        <v>766.6942</v>
       </c>
       <c r="H8" s="1">
-        <v>59098.894</v>
+        <v>58862.5748</v>
       </c>
       <c r="I8" s="1">
-        <v>517.5865</v>
+        <v>516.5533</v>
       </c>
       <c r="J8" s="1">
-        <v>59616.4805</v>
+        <v>59379.1281</v>
       </c>
       <c r="K8" s="1">
-        <v>60086.2644</v>
+        <v>60086.0922</v>
       </c>
       <c r="L8" s="1">
-        <v>13.3483</v>
+        <v>13.3751</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -1057,10 +1057,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-10086.2644</v>
+        <v>-10086.0922</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0218</v>
+        <v>0.0211</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1071,46 +1071,46 @@
         <v>12.716</v>
       </c>
       <c r="C9" s="1">
-        <v>12.716</v>
+        <v>12.6906</v>
       </c>
       <c r="D9" s="1">
-        <v>12.716</v>
+        <v>12.7415</v>
       </c>
       <c r="E9" s="1">
-        <v>5269.6442</v>
+        <v>5259.0946</v>
       </c>
       <c r="F9" s="1">
-        <v>793.1947</v>
+        <v>791.5938</v>
       </c>
       <c r="H9" s="1">
-        <v>67008.7954</v>
+        <v>66741.06600000001</v>
       </c>
       <c r="I9" s="1">
-        <v>431.3221</v>
+        <v>430.4611</v>
       </c>
       <c r="J9" s="1">
-        <v>67440.11749999999</v>
+        <v>67171.52710000001</v>
       </c>
       <c r="K9" s="1">
-        <v>70172.5288</v>
+        <v>70172.1844</v>
       </c>
       <c r="L9" s="1">
-        <v>13.3164</v>
+        <v>13.343</v>
       </c>
       <c r="M9" s="1">
         <v>0.3</v>
       </c>
       <c r="N9" s="1">
-        <v>1215.3783</v>
+        <v>1212.9481</v>
       </c>
       <c r="O9" s="1">
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-8870.8861</v>
+        <v>-8873.1441</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.0313</v>
+        <v>-0.0318</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1121,31 +1121,31 @@
         <v>12.4613</v>
       </c>
       <c r="C10" s="1">
-        <v>12.4613</v>
+        <v>12.4364</v>
       </c>
       <c r="D10" s="1">
-        <v>12.4613</v>
+        <v>12.4863</v>
       </c>
       <c r="E10" s="1">
-        <v>6062.8389</v>
+        <v>6050.6884</v>
       </c>
       <c r="F10" s="1">
-        <v>833.7901000000001</v>
+        <v>832.0583</v>
       </c>
       <c r="H10" s="1">
-        <v>75550.8547</v>
+        <v>75248.78109999999</v>
       </c>
       <c r="I10" s="1">
-        <v>1560.436</v>
+        <v>1557.317</v>
       </c>
       <c r="J10" s="1">
-        <v>77111.2907</v>
+        <v>76806.0981</v>
       </c>
       <c r="K10" s="1">
-        <v>80258.7933</v>
+        <v>80258.2767</v>
       </c>
       <c r="L10" s="1">
-        <v>13.2378</v>
+        <v>13.2643</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -1157,10 +1157,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-10390.109</v>
+        <v>-10389.3293</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.0042</v>
+        <v>-0.0047</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1171,31 +1171,31 @@
         <v>12.6545</v>
       </c>
       <c r="C11" s="1">
-        <v>12.6545</v>
+        <v>12.6292</v>
       </c>
       <c r="D11" s="1">
-        <v>12.6545</v>
+        <v>12.6799</v>
       </c>
       <c r="E11" s="1">
-        <v>6896.6291</v>
+        <v>6882.7467</v>
       </c>
       <c r="F11" s="1">
-        <v>821.0604</v>
+        <v>819.3542</v>
       </c>
       <c r="H11" s="1">
-        <v>87273.3924</v>
+        <v>86923.5842</v>
       </c>
       <c r="I11" s="1">
-        <v>1170.327</v>
+        <v>1167.9878</v>
       </c>
       <c r="J11" s="1">
-        <v>88443.7194</v>
+        <v>88091.572</v>
       </c>
       <c r="K11" s="1">
-        <v>90648.9023</v>
+        <v>90647.6059</v>
       </c>
       <c r="L11" s="1">
-        <v>13.1439</v>
+        <v>13.1703</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -1207,10 +1207,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-10390.109</v>
+        <v>-10389.3293</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0153</v>
+        <v>0.0148</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1221,46 +1221,46 @@
         <v>12.2345</v>
       </c>
       <c r="C12" s="1">
-        <v>12.2345</v>
+        <v>12.21</v>
       </c>
       <c r="D12" s="1">
-        <v>12.2345</v>
+        <v>12.259</v>
       </c>
       <c r="E12" s="1">
-        <v>7717.6895</v>
+        <v>7702.1009</v>
       </c>
       <c r="F12" s="1">
-        <v>849.2467</v>
+        <v>847.4859</v>
       </c>
       <c r="H12" s="1">
-        <v>94422.07180000001</v>
+        <v>94042.65150000001</v>
       </c>
       <c r="I12" s="1">
-        <v>780.218</v>
+        <v>778.6585</v>
       </c>
       <c r="J12" s="1">
-        <v>95202.2898</v>
+        <v>94821.31</v>
       </c>
       <c r="K12" s="1">
-        <v>101039.0113</v>
+        <v>101036.9352</v>
       </c>
       <c r="L12" s="1">
-        <v>13.0919</v>
+        <v>13.1181</v>
       </c>
       <c r="M12" s="1">
         <v>0.3</v>
       </c>
       <c r="N12" s="1">
-        <v>1862.0898</v>
+        <v>1858.3416</v>
       </c>
       <c r="O12" s="1">
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-8528.0191</v>
+        <v>-8530.9877</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0329</v>
+        <v>-0.0333</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1271,31 +1271,31 @@
         <v>12.1636</v>
       </c>
       <c r="C13" s="1">
-        <v>12.1636</v>
+        <v>12.1393</v>
       </c>
       <c r="D13" s="1">
-        <v>12.1636</v>
+        <v>12.188</v>
       </c>
       <c r="E13" s="1">
-        <v>8566.9362</v>
+        <v>8549.5867</v>
       </c>
       <c r="F13" s="1">
-        <v>1007.2839</v>
+        <v>1004.8959</v>
       </c>
       <c r="H13" s="1">
-        <v>104204.7851</v>
+        <v>103785.9982</v>
       </c>
       <c r="I13" s="1">
-        <v>2252.1988</v>
+        <v>2247.6709</v>
       </c>
       <c r="J13" s="1">
-        <v>106456.9839</v>
+        <v>106033.669</v>
       </c>
       <c r="K13" s="1">
-        <v>111429.1202</v>
+        <v>111426.2644</v>
       </c>
       <c r="L13" s="1">
-        <v>13.0069</v>
+        <v>13.0329</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -1307,10 +1307,10 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-12252.1988</v>
+        <v>-12247.6709</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0119</v>
+        <v>0.0116</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1321,31 +1321,31 @@
         <v>11.8145</v>
       </c>
       <c r="C14" s="1">
-        <v>11.8145</v>
+        <v>11.7909</v>
       </c>
       <c r="D14" s="1">
-        <v>11.8145</v>
+        <v>11.8382</v>
       </c>
       <c r="E14" s="1">
-        <v>9574.2201</v>
+        <v>9554.482599999999</v>
       </c>
       <c r="F14" s="1">
-        <v>-9574.2201</v>
+        <v>-9554.482599999999</v>
       </c>
       <c r="H14" s="1">
-        <v>113114.6237</v>
+        <v>112655.9489</v>
       </c>
       <c r="I14" s="1">
         <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>113114.6237</v>
+        <v>112655.9489</v>
       </c>
       <c r="K14" s="1">
-        <v>123681.3191</v>
+        <v>123673.9353</v>
       </c>
       <c r="L14" s="1">
-        <v>12.9182</v>
+        <v>12.9441</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -1357,10 +1357,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>113114.6237</v>
+        <v>112655.9489</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0287</v>
+        <v>-0.0291</v>
       </c>
     </row>
   </sheetData>
@@ -1456,16 +1456,16 @@
         <v>13.2487</v>
       </c>
       <c r="C2" s="1">
-        <v>13.2487</v>
+        <v>13.2222</v>
       </c>
       <c r="D2" s="1">
-        <v>13.2487</v>
+        <v>13.2752</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>754.7910000000001</v>
+        <v>753.2843</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -1503,34 +1503,34 @@
         <v>13.3991</v>
       </c>
       <c r="C3" s="1">
-        <v>13.3991</v>
+        <v>13.3723</v>
       </c>
       <c r="D3" s="1">
-        <v>13.3991</v>
+        <v>13.4259</v>
       </c>
       <c r="E3" s="1">
-        <v>754.7910000000001</v>
+        <v>753.2843</v>
       </c>
       <c r="F3" s="1">
-        <v>737.8465</v>
+        <v>742.3447</v>
       </c>
       <c r="G3" s="1">
         <v>20000</v>
       </c>
       <c r="H3" s="1">
-        <v>10113.5206</v>
+        <v>10073.1439</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10113.5206</v>
+        <v>10073.1439</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>13.2487</v>
+        <v>13.2752</v>
       </c>
       <c r="M3" s="1">
         <v>0.4</v>
@@ -1542,10 +1542,10 @@
         <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>-9886.4794</v>
+        <v>-9966.6458</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.0114</v>
+        <v>0.0073</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1556,34 +1556,34 @@
         <v>13.5985</v>
       </c>
       <c r="C4" s="1">
-        <v>13.5985</v>
+        <v>13.5713</v>
       </c>
       <c r="D4" s="1">
-        <v>13.5985</v>
+        <v>13.6257</v>
       </c>
       <c r="E4" s="1">
-        <v>1492.6376</v>
+        <v>1495.629</v>
       </c>
       <c r="F4" s="1">
-        <v>713.4881</v>
+        <v>714.9182</v>
       </c>
       <c r="G4" s="1">
         <v>30000</v>
       </c>
       <c r="H4" s="1">
-        <v>20297.6319</v>
+        <v>20297.6302</v>
       </c>
       <c r="I4" s="1">
-        <v>113.5206</v>
+        <v>33.3542</v>
       </c>
       <c r="J4" s="1">
-        <v>20411.1525</v>
+        <v>20330.9844</v>
       </c>
       <c r="K4" s="1">
-        <v>19886.4794</v>
+        <v>19966.6458</v>
       </c>
       <c r="L4" s="1">
-        <v>13.323</v>
+        <v>13.35</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -1595,10 +1595,10 @@
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-9702.3681</v>
+        <v>-9741.261399999999</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0148</v>
+        <v>0.0128</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1609,34 +1609,34 @@
         <v>13.6955</v>
       </c>
       <c r="C5" s="1">
-        <v>13.6955</v>
+        <v>13.6681</v>
       </c>
       <c r="D5" s="1">
-        <v>13.6955</v>
+        <v>13.7229</v>
       </c>
       <c r="E5" s="1">
-        <v>2206.1257</v>
+        <v>2210.5473</v>
       </c>
       <c r="F5" s="1">
-        <v>714.5417</v>
+        <v>715.9751</v>
       </c>
       <c r="G5" s="1">
         <v>40000</v>
       </c>
       <c r="H5" s="1">
-        <v>30213.9942</v>
+        <v>30213.981</v>
       </c>
       <c r="I5" s="1">
-        <v>411.1525</v>
+        <v>292.0929</v>
       </c>
       <c r="J5" s="1">
-        <v>30625.1467</v>
+        <v>30506.0738</v>
       </c>
       <c r="K5" s="1">
-        <v>29588.8475</v>
+        <v>29707.9071</v>
       </c>
       <c r="L5" s="1">
-        <v>13.4121</v>
+        <v>13.4392</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -1648,10 +1648,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-9786.005800000001</v>
+        <v>-9825.254499999999</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.007</v>
+        <v>0.0058</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1662,49 +1662,49 @@
         <v>13.3398</v>
       </c>
       <c r="C6" s="1">
-        <v>13.3398</v>
+        <v>13.3131</v>
       </c>
       <c r="D6" s="1">
-        <v>13.3398</v>
+        <v>13.3665</v>
       </c>
       <c r="E6" s="1">
-        <v>2920.6674</v>
+        <v>2926.5223</v>
       </c>
       <c r="F6" s="1">
-        <v>796.4997</v>
+        <v>783.0650000000001</v>
       </c>
       <c r="G6" s="1">
         <v>50000</v>
       </c>
       <c r="H6" s="1">
-        <v>38961.1186</v>
+        <v>38961.0846</v>
       </c>
       <c r="I6" s="1">
-        <v>625.1467</v>
+        <v>466.8384</v>
       </c>
       <c r="J6" s="1">
-        <v>39586.2653</v>
+        <v>39427.923</v>
       </c>
       <c r="K6" s="1">
-        <v>39374.8533</v>
+        <v>39533.1616</v>
       </c>
       <c r="L6" s="1">
-        <v>13.4815</v>
+        <v>13.5086</v>
       </c>
       <c r="M6" s="1">
         <v>0.3</v>
       </c>
       <c r="N6" s="1">
-        <v>595.6539</v>
+        <v>596.8478</v>
       </c>
       <c r="O6" s="1">
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-10029.4928</v>
+        <v>-9869.990599999999</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.0256</v>
+        <v>-0.0266</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1715,34 +1715,34 @@
         <v>12.8469</v>
       </c>
       <c r="C7" s="1">
-        <v>12.8469</v>
+        <v>12.8212</v>
       </c>
       <c r="D7" s="1">
-        <v>12.8469</v>
+        <v>12.8726</v>
       </c>
       <c r="E7" s="1">
-        <v>3717.1671</v>
+        <v>3709.5873</v>
       </c>
       <c r="F7" s="1">
-        <v>824.7635</v>
+        <v>823.2096</v>
       </c>
       <c r="G7" s="1">
         <v>60000</v>
       </c>
       <c r="H7" s="1">
-        <v>47754.0737</v>
+        <v>47561.3613</v>
       </c>
       <c r="I7" s="1">
-        <v>595.6539</v>
+        <v>596.8478</v>
       </c>
       <c r="J7" s="1">
-        <v>48349.7276</v>
+        <v>48158.209</v>
       </c>
       <c r="K7" s="1">
         <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>13.4511</v>
+        <v>13.4786</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -1754,10 +1754,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-10595.6539</v>
+        <v>-10596.8478</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.0249</v>
+        <v>-0.0257</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1768,34 +1768,34 @@
         <v>13.129</v>
       </c>
       <c r="C8" s="1">
-        <v>13.129</v>
+        <v>13.1027</v>
       </c>
       <c r="D8" s="1">
-        <v>13.129</v>
+        <v>13.1553</v>
       </c>
       <c r="E8" s="1">
-        <v>4541.9306</v>
+        <v>4532.7969</v>
       </c>
       <c r="F8" s="1">
-        <v>761.6726</v>
+        <v>760.1499</v>
       </c>
       <c r="G8" s="1">
         <v>70000</v>
       </c>
       <c r="H8" s="1">
-        <v>59631.0062</v>
+        <v>59391.8784</v>
       </c>
       <c r="I8" s="1">
         <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>59631.0062</v>
+        <v>59391.8784</v>
       </c>
       <c r="K8" s="1">
-        <v>60595.6539</v>
+        <v>60596.8478</v>
       </c>
       <c r="L8" s="1">
-        <v>13.3414</v>
+        <v>13.3685</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>-10000</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.022</v>
+        <v>0.0212</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1821,49 +1821,49 @@
         <v>12.716</v>
       </c>
       <c r="C9" s="1">
-        <v>12.716</v>
+        <v>12.6906</v>
       </c>
       <c r="D9" s="1">
-        <v>12.716</v>
+        <v>12.7415</v>
       </c>
       <c r="E9" s="1">
-        <v>5303.6032</v>
+        <v>5292.9468</v>
       </c>
       <c r="F9" s="1">
-        <v>786.4108</v>
+        <v>784.837</v>
       </c>
       <c r="G9" s="1">
         <v>80000</v>
       </c>
       <c r="H9" s="1">
-        <v>67440.61810000001</v>
+        <v>67170.67110000001</v>
       </c>
       <c r="I9" s="1">
         <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>67440.61810000001</v>
+        <v>67170.67110000001</v>
       </c>
       <c r="K9" s="1">
-        <v>70595.6539</v>
+        <v>70596.8478</v>
       </c>
       <c r="L9" s="1">
-        <v>13.3109</v>
+        <v>13.3379</v>
       </c>
       <c r="M9" s="1">
         <v>0.3</v>
       </c>
       <c r="N9" s="1">
-        <v>1226.3212</v>
+        <v>1223.8552</v>
       </c>
       <c r="O9" s="1">
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-8773.6788</v>
+        <v>-8776.1448</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.0315</v>
+        <v>-0.032</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1874,34 +1874,34 @@
         <v>12.4613</v>
       </c>
       <c r="C10" s="1">
-        <v>12.4613</v>
+        <v>12.4364</v>
       </c>
       <c r="D10" s="1">
-        <v>12.4613</v>
+        <v>12.4863</v>
       </c>
       <c r="E10" s="1">
-        <v>6090.014</v>
+        <v>6077.7838</v>
       </c>
       <c r="F10" s="1">
-        <v>900.8949</v>
+        <v>898.8936</v>
       </c>
       <c r="G10" s="1">
         <v>90000</v>
       </c>
       <c r="H10" s="1">
-        <v>75889.4915</v>
+        <v>75585.7503</v>
       </c>
       <c r="I10" s="1">
-        <v>1226.3212</v>
+        <v>1223.8552</v>
       </c>
       <c r="J10" s="1">
-        <v>77115.8128</v>
+        <v>76809.60550000001</v>
       </c>
       <c r="K10" s="1">
-        <v>80595.6539</v>
+        <v>80596.8478</v>
       </c>
       <c r="L10" s="1">
-        <v>13.2341</v>
+        <v>13.2609</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -1913,10 +1913,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-11226.3212</v>
+        <v>-11223.8552</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.0042</v>
+        <v>-0.0047</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1927,34 +1927,34 @@
         <v>12.6545</v>
       </c>
       <c r="C11" s="1">
-        <v>12.6545</v>
+        <v>12.6292</v>
       </c>
       <c r="D11" s="1">
-        <v>12.6545</v>
+        <v>12.6799</v>
       </c>
       <c r="E11" s="1">
-        <v>6990.9089</v>
+        <v>6976.6774</v>
       </c>
       <c r="F11" s="1">
-        <v>790.2327</v>
+        <v>788.6498</v>
       </c>
       <c r="G11" s="1">
         <v>100000</v>
       </c>
       <c r="H11" s="1">
-        <v>88466.4564</v>
+        <v>88109.8541</v>
       </c>
       <c r="I11" s="1">
         <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>88466.4564</v>
+        <v>88109.8541</v>
       </c>
       <c r="K11" s="1">
-        <v>91821.9752</v>
+        <v>91820.7029</v>
       </c>
       <c r="L11" s="1">
-        <v>13.1345</v>
+        <v>13.1611</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -1969,7 +1969,7 @@
         <v>-10000</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0155</v>
+        <v>0.015</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1980,49 +1980,49 @@
         <v>12.2345</v>
       </c>
       <c r="C12" s="1">
-        <v>12.2345</v>
+        <v>12.21</v>
       </c>
       <c r="D12" s="1">
-        <v>12.2345</v>
+        <v>12.259</v>
       </c>
       <c r="E12" s="1">
-        <v>7781.1416</v>
+        <v>7765.3271</v>
       </c>
       <c r="F12" s="1">
-        <v>817.3607</v>
+        <v>815.7272</v>
       </c>
       <c r="G12" s="1">
         <v>110000</v>
       </c>
       <c r="H12" s="1">
-        <v>95198.3769</v>
+        <v>94814.6444</v>
       </c>
       <c r="I12" s="1">
         <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>95198.3769</v>
+        <v>94814.6444</v>
       </c>
       <c r="K12" s="1">
-        <v>101821.9752</v>
+        <v>101820.7029</v>
       </c>
       <c r="L12" s="1">
-        <v>13.0857</v>
+        <v>13.1122</v>
       </c>
       <c r="M12" s="1">
         <v>0.3</v>
       </c>
       <c r="N12" s="1">
-        <v>1887.5454</v>
+        <v>1883.7029</v>
       </c>
       <c r="O12" s="1">
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-8112.4546</v>
+        <v>-8116.2971</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0332</v>
+        <v>-0.0336</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2033,34 +2033,34 @@
         <v>12.1636</v>
       </c>
       <c r="C13" s="1">
-        <v>12.1636</v>
+        <v>12.1393</v>
       </c>
       <c r="D13" s="1">
-        <v>12.1636</v>
+        <v>12.188</v>
       </c>
       <c r="E13" s="1">
-        <v>8598.5023</v>
+        <v>8581.054400000001</v>
       </c>
       <c r="F13" s="1">
-        <v>977.3049</v>
+        <v>975.0331</v>
       </c>
       <c r="G13" s="1">
         <v>120000</v>
       </c>
       <c r="H13" s="1">
-        <v>104588.7431</v>
+        <v>104167.9932</v>
       </c>
       <c r="I13" s="1">
-        <v>1887.5454</v>
+        <v>1883.7029</v>
       </c>
       <c r="J13" s="1">
-        <v>106476.2885</v>
+        <v>106051.6961</v>
       </c>
       <c r="K13" s="1">
-        <v>111821.9752</v>
+        <v>111820.7029</v>
       </c>
       <c r="L13" s="1">
-        <v>13.0048</v>
+        <v>13.0311</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -2072,10 +2072,10 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-11887.5454</v>
+        <v>-11883.7029</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0121</v>
+        <v>0.0118</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2086,34 +2086,34 @@
         <v>11.8145</v>
       </c>
       <c r="C14" s="1">
-        <v>11.8145</v>
+        <v>11.7909</v>
       </c>
       <c r="D14" s="1">
-        <v>11.8145</v>
+        <v>11.8382</v>
       </c>
       <c r="E14" s="1">
-        <v>9575.807199999999</v>
+        <v>9556.0874</v>
       </c>
       <c r="F14" s="1">
-        <v>-9575.807199999999</v>
+        <v>-9556.0874</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>113133.3742</v>
+        <v>112674.8711</v>
       </c>
       <c r="I14" s="1">
         <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>113133.3742</v>
+        <v>112674.8711</v>
       </c>
       <c r="K14" s="1">
-        <v>123709.5206</v>
+        <v>123704.4058</v>
       </c>
       <c r="L14" s="1">
-        <v>12.919</v>
+        <v>12.9451</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -2125,10 +2125,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>113133.3742</v>
+        <v>112674.8711</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0287</v>
+        <v>-0.0291</v>
       </c>
     </row>
   </sheetData>
@@ -2224,16 +2224,16 @@
         <v>13.2487</v>
       </c>
       <c r="C2" s="1">
-        <v>13.2487</v>
+        <v>13.2222</v>
       </c>
       <c r="D2" s="1">
-        <v>13.2487</v>
+        <v>13.2752</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>754.7910000000001</v>
+        <v>753.2843</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -2271,34 +2271,34 @@
         <v>13.3991</v>
       </c>
       <c r="C3" s="1">
-        <v>13.3991</v>
+        <v>13.3723</v>
       </c>
       <c r="D3" s="1">
-        <v>13.3991</v>
+        <v>13.4259</v>
       </c>
       <c r="E3" s="1">
-        <v>754.7910000000001</v>
+        <v>753.2843</v>
       </c>
       <c r="F3" s="1">
-        <v>741.5780999999999</v>
+        <v>746.0838</v>
       </c>
       <c r="G3" s="1">
         <v>20050</v>
       </c>
       <c r="H3" s="1">
-        <v>10113.5206</v>
+        <v>10073.1439</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10113.5206</v>
+        <v>10073.1439</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>13.2487</v>
+        <v>13.2752</v>
       </c>
       <c r="M3" s="1">
         <v>0.4</v>
@@ -2310,10 +2310,10 @@
         <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>-9936.4794</v>
+        <v>-10016.8462</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.0114</v>
+        <v>0.0073</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -2324,34 +2324,34 @@
         <v>13.5985</v>
       </c>
       <c r="C4" s="1">
-        <v>13.5985</v>
+        <v>13.5713</v>
       </c>
       <c r="D4" s="1">
-        <v>13.5985</v>
+        <v>13.6257</v>
       </c>
       <c r="E4" s="1">
-        <v>1496.3692</v>
+        <v>1499.3681</v>
       </c>
       <c r="F4" s="1">
-        <v>720.8055000000001</v>
+        <v>722.2503</v>
       </c>
       <c r="G4" s="1">
         <v>30150.25</v>
       </c>
       <c r="H4" s="1">
-        <v>20348.376</v>
+        <v>20348.3743</v>
       </c>
       <c r="I4" s="1">
-        <v>63.5206</v>
+        <v>-16.8462</v>
       </c>
       <c r="J4" s="1">
-        <v>20411.8966</v>
+        <v>20331.5281</v>
       </c>
       <c r="K4" s="1">
-        <v>19936.4794</v>
+        <v>20016.8462</v>
       </c>
       <c r="L4" s="1">
-        <v>13.3232</v>
+        <v>13.3502</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -2363,10 +2363,10 @@
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-9801.874</v>
+        <v>-9841.1662</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0148</v>
+        <v>0.0129</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -2377,34 +2377,34 @@
         <v>13.6955</v>
       </c>
       <c r="C5" s="1">
-        <v>13.6955</v>
+        <v>13.6681</v>
       </c>
       <c r="D5" s="1">
-        <v>13.6955</v>
+        <v>13.7229</v>
       </c>
       <c r="E5" s="1">
-        <v>2217.1747</v>
+        <v>2221.6184</v>
       </c>
       <c r="F5" s="1">
-        <v>725.4708000000001</v>
+        <v>726.9261</v>
       </c>
       <c r="G5" s="1">
         <v>40301.0012</v>
       </c>
       <c r="H5" s="1">
-        <v>30365.3159</v>
+        <v>30365.3027</v>
       </c>
       <c r="I5" s="1">
-        <v>261.6466</v>
+        <v>141.9877</v>
       </c>
       <c r="J5" s="1">
-        <v>30626.9625</v>
+        <v>30507.2903</v>
       </c>
       <c r="K5" s="1">
-        <v>29738.3534</v>
+        <v>29858.0123</v>
       </c>
       <c r="L5" s="1">
-        <v>13.4127</v>
+        <v>13.4398</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -2416,10 +2416,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-9935.685299999999</v>
+        <v>-9975.534100000001</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0071</v>
+        <v>0.0058</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -2430,49 +2430,49 @@
         <v>13.3398</v>
       </c>
       <c r="C6" s="1">
-        <v>13.3398</v>
+        <v>13.3131</v>
       </c>
       <c r="D6" s="1">
-        <v>13.3398</v>
+        <v>13.3665</v>
       </c>
       <c r="E6" s="1">
-        <v>2942.6455</v>
+        <v>2948.5445</v>
       </c>
       <c r="F6" s="1">
-        <v>774.0717</v>
+        <v>760.592</v>
       </c>
       <c r="G6" s="1">
         <v>50502.5063</v>
       </c>
       <c r="H6" s="1">
-        <v>39254.3023</v>
+        <v>39254.2679</v>
       </c>
       <c r="I6" s="1">
-        <v>325.9613</v>
+        <v>166.4535</v>
       </c>
       <c r="J6" s="1">
-        <v>39580.2635</v>
+        <v>39420.7215</v>
       </c>
       <c r="K6" s="1">
-        <v>39674.0387</v>
+        <v>39833.5465</v>
       </c>
       <c r="L6" s="1">
-        <v>13.4824</v>
+        <v>13.5096</v>
       </c>
       <c r="M6" s="1">
         <v>0.3</v>
       </c>
       <c r="N6" s="1">
-        <v>598.6372</v>
+        <v>599.837</v>
       </c>
       <c r="O6" s="1">
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-9727.3241</v>
+        <v>-9566.6165</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.0258</v>
+        <v>-0.0268</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -2483,34 +2483,34 @@
         <v>12.8469</v>
       </c>
       <c r="C7" s="1">
-        <v>12.8469</v>
+        <v>12.8212</v>
       </c>
       <c r="D7" s="1">
-        <v>12.8469</v>
+        <v>12.8726</v>
       </c>
       <c r="E7" s="1">
-        <v>3716.7172</v>
+        <v>3709.1366</v>
       </c>
       <c r="F7" s="1">
-        <v>824.9957000000001</v>
+        <v>823.4417999999999</v>
       </c>
       <c r="G7" s="1">
         <v>60755.0188</v>
       </c>
       <c r="H7" s="1">
-        <v>47748.2936</v>
+        <v>47555.5816</v>
       </c>
       <c r="I7" s="1">
-        <v>598.6372</v>
+        <v>599.837</v>
       </c>
       <c r="J7" s="1">
-        <v>48346.9308</v>
+        <v>48155.4185</v>
       </c>
       <c r="K7" s="1">
         <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>13.4527</v>
+        <v>13.4802</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -2522,10 +2522,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-10598.6372</v>
+        <v>-10599.837</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.0249</v>
+        <v>-0.0256</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -2536,34 +2536,34 @@
         <v>13.129</v>
       </c>
       <c r="C8" s="1">
-        <v>13.129</v>
+        <v>13.1027</v>
       </c>
       <c r="D8" s="1">
-        <v>13.129</v>
+        <v>13.1553</v>
       </c>
       <c r="E8" s="1">
-        <v>4541.7128</v>
+        <v>4532.5784</v>
       </c>
       <c r="F8" s="1">
-        <v>761.6726</v>
+        <v>760.1499</v>
       </c>
       <c r="G8" s="1">
         <v>71058.7939</v>
       </c>
       <c r="H8" s="1">
-        <v>59628.148</v>
+        <v>59389.0144</v>
       </c>
       <c r="I8" s="1">
         <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>59628.148</v>
+        <v>59389.0144</v>
       </c>
       <c r="K8" s="1">
-        <v>60598.6372</v>
+        <v>60599.837</v>
       </c>
       <c r="L8" s="1">
-        <v>13.3427</v>
+        <v>13.3698</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -2578,7 +2578,7 @@
         <v>-10000</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.022</v>
+        <v>0.0212</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -2589,49 +2589,49 @@
         <v>12.716</v>
       </c>
       <c r="C9" s="1">
-        <v>12.716</v>
+        <v>12.6906</v>
       </c>
       <c r="D9" s="1">
-        <v>12.716</v>
+        <v>12.7415</v>
       </c>
       <c r="E9" s="1">
-        <v>5303.3855</v>
+        <v>5292.7283</v>
       </c>
       <c r="F9" s="1">
-        <v>786.4108</v>
+        <v>784.837</v>
       </c>
       <c r="G9" s="1">
         <v>81414.0879</v>
       </c>
       <c r="H9" s="1">
-        <v>67437.8498</v>
+        <v>67167.89720000001</v>
       </c>
       <c r="I9" s="1">
         <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>67437.8498</v>
+        <v>67167.89720000001</v>
       </c>
       <c r="K9" s="1">
-        <v>70598.6372</v>
+        <v>70599.837</v>
       </c>
       <c r="L9" s="1">
-        <v>13.312</v>
+        <v>13.339</v>
       </c>
       <c r="M9" s="1">
         <v>0.3</v>
       </c>
       <c r="N9" s="1">
-        <v>1226.2625</v>
+        <v>1223.7962</v>
       </c>
       <c r="O9" s="1">
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-8773.737499999999</v>
+        <v>-8776.203799999999</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.0315</v>
+        <v>-0.032</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -2642,34 +2642,34 @@
         <v>12.4613</v>
       </c>
       <c r="C10" s="1">
-        <v>12.4613</v>
+        <v>12.4364</v>
       </c>
       <c r="D10" s="1">
-        <v>12.4613</v>
+        <v>12.4863</v>
       </c>
       <c r="E10" s="1">
-        <v>6089.7963</v>
+        <v>6077.5652</v>
       </c>
       <c r="F10" s="1">
-        <v>900.8902</v>
+        <v>898.8889</v>
       </c>
       <c r="G10" s="1">
         <v>91821.1583</v>
       </c>
       <c r="H10" s="1">
-        <v>75886.7787</v>
+        <v>75583.03200000001</v>
       </c>
       <c r="I10" s="1">
-        <v>1226.2625</v>
+        <v>1223.7962</v>
       </c>
       <c r="J10" s="1">
-        <v>77113.0411</v>
+        <v>76806.8281</v>
       </c>
       <c r="K10" s="1">
-        <v>80598.6372</v>
+        <v>80599.837</v>
       </c>
       <c r="L10" s="1">
-        <v>13.235</v>
+        <v>13.2619</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -2681,10 +2681,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-11226.2625</v>
+        <v>-11223.7962</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.0042</v>
+        <v>-0.0047</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -2695,34 +2695,34 @@
         <v>12.6545</v>
       </c>
       <c r="C11" s="1">
-        <v>12.6545</v>
+        <v>12.6292</v>
       </c>
       <c r="D11" s="1">
-        <v>12.6545</v>
+        <v>12.6799</v>
       </c>
       <c r="E11" s="1">
-        <v>6990.6865</v>
+        <v>6976.4541</v>
       </c>
       <c r="F11" s="1">
-        <v>790.2327</v>
+        <v>788.6498</v>
       </c>
       <c r="G11" s="1">
         <v>102280.2641</v>
       </c>
       <c r="H11" s="1">
-        <v>88463.6418</v>
+        <v>88107.03389999999</v>
       </c>
       <c r="I11" s="1">
         <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>88463.6418</v>
+        <v>88107.03389999999</v>
       </c>
       <c r="K11" s="1">
-        <v>91824.8996</v>
+        <v>91823.63310000001</v>
       </c>
       <c r="L11" s="1">
-        <v>13.1353</v>
+        <v>13.1619</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -2737,7 +2737,7 @@
         <v>-10000</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0155</v>
+        <v>0.015</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -2748,49 +2748,49 @@
         <v>12.2345</v>
       </c>
       <c r="C12" s="1">
-        <v>12.2345</v>
+        <v>12.21</v>
       </c>
       <c r="D12" s="1">
-        <v>12.2345</v>
+        <v>12.259</v>
       </c>
       <c r="E12" s="1">
-        <v>7780.9192</v>
+        <v>7765.1038</v>
       </c>
       <c r="F12" s="1">
-        <v>817.3607</v>
+        <v>815.7272</v>
       </c>
       <c r="G12" s="1">
         <v>112791.6654</v>
       </c>
       <c r="H12" s="1">
-        <v>95195.6557</v>
+        <v>94811.9178</v>
       </c>
       <c r="I12" s="1">
         <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>95195.6557</v>
+        <v>94811.9178</v>
       </c>
       <c r="K12" s="1">
-        <v>101824.8996</v>
+        <v>101823.6331</v>
       </c>
       <c r="L12" s="1">
-        <v>13.0865</v>
+        <v>13.113</v>
       </c>
       <c r="M12" s="1">
         <v>0.3</v>
       </c>
       <c r="N12" s="1">
-        <v>1887.4853</v>
+        <v>1883.6426</v>
       </c>
       <c r="O12" s="1">
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-8112.5147</v>
+        <v>-8116.3574</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0332</v>
+        <v>-0.0336</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2801,34 +2801,34 @@
         <v>12.1636</v>
       </c>
       <c r="C13" s="1">
-        <v>12.1636</v>
+        <v>12.1393</v>
       </c>
       <c r="D13" s="1">
-        <v>12.1636</v>
+        <v>12.188</v>
       </c>
       <c r="E13" s="1">
-        <v>8598.2799</v>
+        <v>8580.831099999999</v>
       </c>
       <c r="F13" s="1">
-        <v>977.2999</v>
+        <v>975.0281</v>
       </c>
       <c r="G13" s="1">
         <v>123355.6237</v>
       </c>
       <c r="H13" s="1">
-        <v>104586.0377</v>
+        <v>104165.2825</v>
       </c>
       <c r="I13" s="1">
-        <v>1887.4853</v>
+        <v>1883.6426</v>
       </c>
       <c r="J13" s="1">
-        <v>106473.523</v>
+        <v>106048.9251</v>
       </c>
       <c r="K13" s="1">
-        <v>111824.8996</v>
+        <v>111823.6331</v>
       </c>
       <c r="L13" s="1">
-        <v>13.0055</v>
+        <v>13.0318</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -2840,10 +2840,10 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-11887.4853</v>
+        <v>-11883.6426</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0121</v>
+        <v>0.0118</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2854,34 +2854,34 @@
         <v>11.8145</v>
       </c>
       <c r="C14" s="1">
-        <v>11.8145</v>
+        <v>11.7909</v>
       </c>
       <c r="D14" s="1">
-        <v>11.8145</v>
+        <v>11.8382</v>
       </c>
       <c r="E14" s="1">
-        <v>9575.5798</v>
+        <v>9555.859200000001</v>
       </c>
       <c r="F14" s="1">
-        <v>-9575.5798</v>
+        <v>-9555.859200000001</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>113130.6881</v>
+        <v>112672.1799</v>
       </c>
       <c r="I14" s="1">
         <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>113130.6881</v>
+        <v>112672.1799</v>
       </c>
       <c r="K14" s="1">
-        <v>123712.385</v>
+        <v>123707.2757</v>
       </c>
       <c r="L14" s="1">
-        <v>12.9196</v>
+        <v>12.9457</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -2893,10 +2893,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>113130.6881</v>
+        <v>112672.1799</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0287</v>
+        <v>-0.0291</v>
       </c>
     </row>
   </sheetData>
@@ -2992,16 +2992,16 @@
         <v>13.2487</v>
       </c>
       <c r="C2" s="1">
-        <v>13.2487</v>
+        <v>13.2222</v>
       </c>
       <c r="D2" s="1">
-        <v>13.2487</v>
+        <v>13.2752</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>754.7910000000001</v>
+        <v>753.2843</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -3039,34 +3039,34 @@
         <v>13.3991</v>
       </c>
       <c r="C3" s="1">
-        <v>13.3991</v>
+        <v>13.3723</v>
       </c>
       <c r="D3" s="1">
-        <v>13.3991</v>
+        <v>13.4259</v>
       </c>
       <c r="E3" s="1">
-        <v>754.7910000000001</v>
+        <v>753.2843</v>
       </c>
       <c r="F3" s="1">
-        <v>745.3097</v>
+        <v>744.829</v>
       </c>
       <c r="G3" s="1">
         <v>20100</v>
       </c>
       <c r="H3" s="1">
-        <v>10113.5206</v>
+        <v>10073.1439</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10113.5206</v>
+        <v>10073.1439</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>13.2487</v>
+        <v>13.2752</v>
       </c>
       <c r="M3" s="1">
         <v>0.4</v>
@@ -3078,10 +3078,10 @@
         <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>-9986.4794</v>
+        <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.0114</v>
+        <v>0.0073</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3092,34 +3092,34 @@
         <v>13.5985</v>
       </c>
       <c r="C4" s="1">
-        <v>13.5985</v>
+        <v>13.5713</v>
       </c>
       <c r="D4" s="1">
-        <v>13.5985</v>
+        <v>13.6257</v>
       </c>
       <c r="E4" s="1">
-        <v>1500.1008</v>
+        <v>1498.1133</v>
       </c>
       <c r="F4" s="1">
-        <v>728.1597</v>
+        <v>734.6131</v>
       </c>
       <c r="G4" s="1">
         <v>30301</v>
       </c>
       <c r="H4" s="1">
-        <v>20399.1201</v>
+        <v>20331.3456</v>
       </c>
       <c r="I4" s="1">
-        <v>13.5206</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>20412.6407</v>
+        <v>20331.3456</v>
       </c>
       <c r="K4" s="1">
-        <v>19986.4794</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>13.3234</v>
+        <v>13.3501</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -3131,10 +3131,10 @@
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-9901.8799</v>
+        <v>-10009.6173</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0149</v>
+        <v>0.0129</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3145,34 +3145,34 @@
         <v>13.6955</v>
       </c>
       <c r="C5" s="1">
-        <v>13.6955</v>
+        <v>13.6681</v>
       </c>
       <c r="D5" s="1">
-        <v>13.6955</v>
+        <v>13.7229</v>
       </c>
       <c r="E5" s="1">
-        <v>2228.2605</v>
+        <v>2232.7264</v>
       </c>
       <c r="F5" s="1">
-        <v>736.5097</v>
+        <v>728.0081</v>
       </c>
       <c r="G5" s="1">
         <v>40604.01</v>
       </c>
       <c r="H5" s="1">
-        <v>30517.1413</v>
+        <v>30517.1279</v>
       </c>
       <c r="I5" s="1">
-        <v>111.6407</v>
+        <v>-9.6173</v>
       </c>
       <c r="J5" s="1">
-        <v>30628.7819</v>
+        <v>30507.5106</v>
       </c>
       <c r="K5" s="1">
-        <v>29888.3593</v>
+        <v>30009.6173</v>
       </c>
       <c r="L5" s="1">
-        <v>13.4133</v>
+        <v>13.4408</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -3184,10 +3184,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-10086.8687</v>
+        <v>-9990.3827</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0071</v>
+        <v>0.0058</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3198,49 +3198,49 @@
         <v>13.3398</v>
       </c>
       <c r="C6" s="1">
-        <v>13.3398</v>
+        <v>13.3131</v>
       </c>
       <c r="D6" s="1">
-        <v>13.3398</v>
+        <v>13.3665</v>
       </c>
       <c r="E6" s="1">
-        <v>2964.7702</v>
+        <v>2960.7345</v>
       </c>
       <c r="F6" s="1">
-        <v>751.4934</v>
+        <v>748.139</v>
       </c>
       <c r="G6" s="1">
         <v>51010.0501</v>
       </c>
       <c r="H6" s="1">
-        <v>39549.4412</v>
+        <v>39416.555</v>
       </c>
       <c r="I6" s="1">
-        <v>24.7719</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>39574.2132</v>
+        <v>39416.555</v>
       </c>
       <c r="K6" s="1">
-        <v>39975.2281</v>
+        <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>13.4834</v>
+        <v>13.5102</v>
       </c>
       <c r="M6" s="1">
         <v>0.3</v>
       </c>
       <c r="N6" s="1">
-        <v>601.6303</v>
+        <v>602.8361</v>
       </c>
       <c r="O6" s="1">
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-9423.141600000001</v>
+        <v>-9397.1639</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.026</v>
+        <v>-0.0269</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3251,34 +3251,34 @@
         <v>12.8469</v>
       </c>
       <c r="C7" s="1">
-        <v>12.8469</v>
+        <v>12.8212</v>
       </c>
       <c r="D7" s="1">
-        <v>12.8469</v>
+        <v>12.8726</v>
       </c>
       <c r="E7" s="1">
-        <v>3716.2636</v>
+        <v>3708.8735</v>
       </c>
       <c r="F7" s="1">
-        <v>825.2287</v>
+        <v>823.6748</v>
       </c>
       <c r="G7" s="1">
         <v>61520.1506</v>
       </c>
       <c r="H7" s="1">
-        <v>47742.4668</v>
+        <v>47552.2095</v>
       </c>
       <c r="I7" s="1">
-        <v>601.6303</v>
+        <v>602.8361</v>
       </c>
       <c r="J7" s="1">
-        <v>48344.0972</v>
+        <v>48155.0456</v>
       </c>
       <c r="K7" s="1">
         <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>13.4544</v>
+        <v>13.4812</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -3290,10 +3290,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-10601.6303</v>
+        <v>-10602.8361</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.0248</v>
+        <v>-0.0255</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3304,34 +3304,34 @@
         <v>13.129</v>
       </c>
       <c r="C8" s="1">
-        <v>13.129</v>
+        <v>13.1027</v>
       </c>
       <c r="D8" s="1">
-        <v>13.129</v>
+        <v>13.1553</v>
       </c>
       <c r="E8" s="1">
-        <v>4541.4923</v>
+        <v>4532.5483</v>
       </c>
       <c r="F8" s="1">
-        <v>761.6726</v>
+        <v>760.1499</v>
       </c>
       <c r="G8" s="1">
         <v>72135.3521</v>
       </c>
       <c r="H8" s="1">
-        <v>59625.2521</v>
+        <v>59388.6211</v>
       </c>
       <c r="I8" s="1">
         <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>59625.2521</v>
+        <v>59388.6211</v>
       </c>
       <c r="K8" s="1">
-        <v>60601.6303</v>
+        <v>60602.8361</v>
       </c>
       <c r="L8" s="1">
-        <v>13.344</v>
+        <v>13.3706</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -3346,7 +3346,7 @@
         <v>-10000</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.022</v>
+        <v>0.0212</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3357,49 +3357,49 @@
         <v>12.716</v>
       </c>
       <c r="C9" s="1">
-        <v>12.716</v>
+        <v>12.6906</v>
       </c>
       <c r="D9" s="1">
-        <v>12.716</v>
+        <v>12.7415</v>
       </c>
       <c r="E9" s="1">
-        <v>5303.1649</v>
+        <v>5292.6982</v>
       </c>
       <c r="F9" s="1">
-        <v>786.4108</v>
+        <v>784.837</v>
       </c>
       <c r="G9" s="1">
         <v>82856.7056</v>
       </c>
       <c r="H9" s="1">
-        <v>67435.045</v>
+        <v>67167.5162</v>
       </c>
       <c r="I9" s="1">
         <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>67435.045</v>
+        <v>67167.5162</v>
       </c>
       <c r="K9" s="1">
-        <v>70601.6303</v>
+        <v>70602.8361</v>
       </c>
       <c r="L9" s="1">
-        <v>13.3131</v>
+        <v>13.3397</v>
       </c>
       <c r="M9" s="1">
         <v>0.3</v>
       </c>
       <c r="N9" s="1">
-        <v>1226.2029</v>
+        <v>1223.7881</v>
       </c>
       <c r="O9" s="1">
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-8773.7971</v>
+        <v>-8776.2119</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.0315</v>
+        <v>-0.032</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -3410,34 +3410,34 @@
         <v>12.4613</v>
       </c>
       <c r="C10" s="1">
-        <v>12.4613</v>
+        <v>12.4364</v>
       </c>
       <c r="D10" s="1">
-        <v>12.4613</v>
+        <v>12.4863</v>
       </c>
       <c r="E10" s="1">
-        <v>6089.5757</v>
+        <v>6077.5352</v>
       </c>
       <c r="F10" s="1">
-        <v>900.8854</v>
+        <v>898.8882</v>
       </c>
       <c r="G10" s="1">
         <v>93685.2727</v>
       </c>
       <c r="H10" s="1">
-        <v>75884.0301</v>
+        <v>75582.6586</v>
       </c>
       <c r="I10" s="1">
-        <v>1226.2029</v>
+        <v>1223.7881</v>
       </c>
       <c r="J10" s="1">
-        <v>77110.23299999999</v>
+        <v>76806.4466</v>
       </c>
       <c r="K10" s="1">
-        <v>80601.6303</v>
+        <v>80602.8361</v>
       </c>
       <c r="L10" s="1">
-        <v>13.236</v>
+        <v>13.2624</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -3449,10 +3449,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-11226.2029</v>
+        <v>-11223.7881</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.0042</v>
+        <v>-0.0047</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -3463,34 +3463,34 @@
         <v>12.6545</v>
       </c>
       <c r="C11" s="1">
-        <v>12.6545</v>
+        <v>12.6292</v>
       </c>
       <c r="D11" s="1">
-        <v>12.6545</v>
+        <v>12.6799</v>
       </c>
       <c r="E11" s="1">
-        <v>6990.4611</v>
+        <v>6976.4234</v>
       </c>
       <c r="F11" s="1">
-        <v>790.2327</v>
+        <v>788.6498</v>
       </c>
       <c r="G11" s="1">
         <v>104622.1254</v>
       </c>
       <c r="H11" s="1">
-        <v>88460.7901</v>
+        <v>88106.64659999999</v>
       </c>
       <c r="I11" s="1">
         <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>88460.7901</v>
+        <v>88106.64659999999</v>
       </c>
       <c r="K11" s="1">
-        <v>91827.83319999999</v>
+        <v>91826.62420000001</v>
       </c>
       <c r="L11" s="1">
-        <v>13.1362</v>
+        <v>13.1624</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -3505,7 +3505,7 @@
         <v>-10000</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0155</v>
+        <v>0.015</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -3516,49 +3516,49 @@
         <v>12.2345</v>
       </c>
       <c r="C12" s="1">
-        <v>12.2345</v>
+        <v>12.21</v>
       </c>
       <c r="D12" s="1">
-        <v>12.2345</v>
+        <v>12.259</v>
       </c>
       <c r="E12" s="1">
-        <v>7780.6938</v>
+        <v>7765.0732</v>
       </c>
       <c r="F12" s="1">
-        <v>817.3607</v>
+        <v>815.7272</v>
       </c>
       <c r="G12" s="1">
         <v>115668.3467</v>
       </c>
       <c r="H12" s="1">
-        <v>95192.89870000001</v>
+        <v>94811.5433</v>
       </c>
       <c r="I12" s="1">
         <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>95192.89870000001</v>
+        <v>94811.5433</v>
       </c>
       <c r="K12" s="1">
-        <v>101827.8332</v>
+        <v>101826.6242</v>
       </c>
       <c r="L12" s="1">
-        <v>13.0872</v>
+        <v>13.1134</v>
       </c>
       <c r="M12" s="1">
         <v>0.3</v>
       </c>
       <c r="N12" s="1">
-        <v>1887.4245</v>
+        <v>1883.6343</v>
       </c>
       <c r="O12" s="1">
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-8112.5755</v>
+        <v>-8116.3657</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0332</v>
+        <v>-0.0336</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -3569,34 +3569,34 @@
         <v>12.1636</v>
       </c>
       <c r="C13" s="1">
-        <v>12.1636</v>
+        <v>12.1393</v>
       </c>
       <c r="D13" s="1">
-        <v>12.1636</v>
+        <v>12.188</v>
       </c>
       <c r="E13" s="1">
-        <v>8598.054599999999</v>
+        <v>8580.8004</v>
       </c>
       <c r="F13" s="1">
-        <v>977.2949</v>
+        <v>975.0273999999999</v>
       </c>
       <c r="G13" s="1">
         <v>126825.0301</v>
       </c>
       <c r="H13" s="1">
-        <v>104583.2966</v>
+        <v>104164.9101</v>
       </c>
       <c r="I13" s="1">
-        <v>1887.4245</v>
+        <v>1883.6343</v>
       </c>
       <c r="J13" s="1">
-        <v>106470.7211</v>
+        <v>106048.5444</v>
       </c>
       <c r="K13" s="1">
-        <v>111827.8332</v>
+        <v>111826.6242</v>
       </c>
       <c r="L13" s="1">
-        <v>13.0062</v>
+        <v>13.0322</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -3608,10 +3608,10 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-11887.4245</v>
+        <v>-11883.6343</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0121</v>
+        <v>0.0118</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -3622,34 +3622,34 @@
         <v>11.8145</v>
       </c>
       <c r="C14" s="1">
-        <v>11.8145</v>
+        <v>11.7909</v>
       </c>
       <c r="D14" s="1">
-        <v>11.8145</v>
+        <v>11.8382</v>
       </c>
       <c r="E14" s="1">
-        <v>9575.3495</v>
+        <v>9555.827799999999</v>
       </c>
       <c r="F14" s="1">
-        <v>-9575.3495</v>
+        <v>-9555.827799999999</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>113127.9666</v>
+        <v>112671.8102</v>
       </c>
       <c r="I14" s="1">
         <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>113127.9666</v>
+        <v>112671.8102</v>
       </c>
       <c r="K14" s="1">
-        <v>123715.2577</v>
+        <v>123710.2585</v>
       </c>
       <c r="L14" s="1">
-        <v>12.9202</v>
+        <v>12.9461</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -3661,10 +3661,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>113127.9666</v>
+        <v>112671.8102</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0287</v>
+        <v>-0.0291</v>
       </c>
     </row>
   </sheetData>
@@ -3760,16 +3760,16 @@
         <v>13.2487</v>
       </c>
       <c r="C2" s="1">
-        <v>13.2487</v>
+        <v>13.2222</v>
       </c>
       <c r="D2" s="1">
-        <v>13.2487</v>
+        <v>13.2752</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>754.7910000000001</v>
+        <v>753.2843</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -3807,34 +3807,34 @@
         <v>13.3991</v>
       </c>
       <c r="C3" s="1">
-        <v>13.3991</v>
+        <v>13.3723</v>
       </c>
       <c r="D3" s="1">
-        <v>13.3991</v>
+        <v>13.4259</v>
       </c>
       <c r="E3" s="1">
-        <v>754.7910000000001</v>
+        <v>753.2843</v>
       </c>
       <c r="F3" s="1">
-        <v>746.3188</v>
+        <v>744.829</v>
       </c>
       <c r="G3" s="1">
         <v>20150</v>
       </c>
       <c r="H3" s="1">
-        <v>10113.5206</v>
+        <v>10073.1439</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10113.5206</v>
+        <v>10073.1439</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>13.2487</v>
+        <v>13.2752</v>
       </c>
       <c r="M3" s="1">
         <v>0.4</v>
@@ -3849,7 +3849,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.0114</v>
+        <v>0.0073</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3860,34 +3860,34 @@
         <v>13.5985</v>
       </c>
       <c r="C4" s="1">
-        <v>13.5985</v>
+        <v>13.5713</v>
       </c>
       <c r="D4" s="1">
-        <v>13.5985</v>
+        <v>13.6257</v>
       </c>
       <c r="E4" s="1">
-        <v>1501.1098</v>
+        <v>1498.1133</v>
       </c>
       <c r="F4" s="1">
-        <v>735.3751999999999</v>
+        <v>733.9072</v>
       </c>
       <c r="G4" s="1">
         <v>30452.25</v>
       </c>
       <c r="H4" s="1">
-        <v>20412.8419</v>
+        <v>20331.3456</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>20412.8419</v>
+        <v>20331.3456</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>13.3235</v>
+        <v>13.3501</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -3902,7 +3902,7 @@
         <v>-10000</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0149</v>
+        <v>0.0129</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3913,34 +3913,34 @@
         <v>13.6955</v>
       </c>
       <c r="C5" s="1">
-        <v>13.6955</v>
+        <v>13.6681</v>
       </c>
       <c r="D5" s="1">
-        <v>13.6955</v>
+        <v>13.7229</v>
       </c>
       <c r="E5" s="1">
-        <v>2236.485</v>
+        <v>2232.0206</v>
       </c>
       <c r="F5" s="1">
-        <v>730.1668</v>
+        <v>728.7089</v>
       </c>
       <c r="G5" s="1">
         <v>40909.0337</v>
       </c>
       <c r="H5" s="1">
-        <v>30629.7809</v>
+        <v>30507.4807</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>30629.7809</v>
+        <v>30507.4807</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>13.4139</v>
+        <v>13.4407</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -3955,7 +3955,7 @@
         <v>-10000</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0071</v>
+        <v>0.0058</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3966,49 +3966,49 @@
         <v>13.3398</v>
       </c>
       <c r="C6" s="1">
-        <v>13.3398</v>
+        <v>13.3131</v>
       </c>
       <c r="D6" s="1">
-        <v>13.3398</v>
+        <v>13.3665</v>
       </c>
       <c r="E6" s="1">
-        <v>2966.6519</v>
+        <v>2960.7295</v>
       </c>
       <c r="F6" s="1">
-        <v>749.6364</v>
+        <v>748.139</v>
       </c>
       <c r="G6" s="1">
         <v>51522.6693</v>
       </c>
       <c r="H6" s="1">
-        <v>39574.5428</v>
+        <v>39416.4884</v>
       </c>
       <c r="I6" s="1">
         <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>39574.5428</v>
+        <v>39416.4884</v>
       </c>
       <c r="K6" s="1">
         <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>13.4832</v>
+        <v>13.5102</v>
       </c>
       <c r="M6" s="1">
         <v>0.3</v>
       </c>
       <c r="N6" s="1">
-        <v>603.851</v>
+        <v>602.6455999999999</v>
       </c>
       <c r="O6" s="1">
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-9396.148999999999</v>
+        <v>-9397.3544</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.026</v>
+        <v>-0.0269</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -4019,34 +4019,34 @@
         <v>12.8469</v>
       </c>
       <c r="C7" s="1">
-        <v>12.8469</v>
+        <v>12.8212</v>
       </c>
       <c r="D7" s="1">
-        <v>12.8469</v>
+        <v>12.8726</v>
       </c>
       <c r="E7" s="1">
-        <v>3716.2883</v>
+        <v>3708.8685</v>
       </c>
       <c r="F7" s="1">
-        <v>825.4015000000001</v>
+        <v>823.66</v>
       </c>
       <c r="G7" s="1">
         <v>62295.5093</v>
       </c>
       <c r="H7" s="1">
-        <v>47742.7843</v>
+        <v>47552.1454</v>
       </c>
       <c r="I7" s="1">
-        <v>603.851</v>
+        <v>602.6455999999999</v>
       </c>
       <c r="J7" s="1">
-        <v>48346.6353</v>
+        <v>48154.7909</v>
       </c>
       <c r="K7" s="1">
         <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>13.4543</v>
+        <v>13.4812</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -4058,10 +4058,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-10603.851</v>
+        <v>-10602.6456</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.0248</v>
+        <v>-0.0255</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -4072,34 +4072,34 @@
         <v>13.129</v>
       </c>
       <c r="C8" s="1">
-        <v>13.129</v>
+        <v>13.1027</v>
       </c>
       <c r="D8" s="1">
-        <v>13.129</v>
+        <v>13.1553</v>
       </c>
       <c r="E8" s="1">
-        <v>4541.6898</v>
+        <v>4532.5285</v>
       </c>
       <c r="F8" s="1">
-        <v>761.6726</v>
+        <v>760.1499</v>
       </c>
       <c r="G8" s="1">
         <v>73229.94190000001</v>
       </c>
       <c r="H8" s="1">
-        <v>59627.846</v>
+        <v>59388.3616</v>
       </c>
       <c r="I8" s="1">
         <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>59627.846</v>
+        <v>59388.3616</v>
       </c>
       <c r="K8" s="1">
-        <v>60603.851</v>
+        <v>60602.6456</v>
       </c>
       <c r="L8" s="1">
-        <v>13.3439</v>
+        <v>13.3706</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -4114,7 +4114,7 @@
         <v>-10000</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.022</v>
+        <v>0.0212</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -4125,49 +4125,49 @@
         <v>12.716</v>
       </c>
       <c r="C9" s="1">
-        <v>12.716</v>
+        <v>12.6906</v>
       </c>
       <c r="D9" s="1">
-        <v>12.716</v>
+        <v>12.7415</v>
       </c>
       <c r="E9" s="1">
-        <v>5303.3625</v>
+        <v>5292.6784</v>
       </c>
       <c r="F9" s="1">
-        <v>786.4108</v>
+        <v>784.837</v>
       </c>
       <c r="G9" s="1">
         <v>84328.39109999999</v>
       </c>
       <c r="H9" s="1">
-        <v>67437.5573</v>
+        <v>67167.26489999999</v>
       </c>
       <c r="I9" s="1">
         <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>67437.5573</v>
+        <v>67167.26489999999</v>
       </c>
       <c r="K9" s="1">
-        <v>70603.851</v>
+        <v>70602.6456</v>
       </c>
       <c r="L9" s="1">
-        <v>13.313</v>
+        <v>13.3397</v>
       </c>
       <c r="M9" s="1">
         <v>0.3</v>
       </c>
       <c r="N9" s="1">
-        <v>1226.2563</v>
+        <v>1223.7827</v>
       </c>
       <c r="O9" s="1">
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-8773.743700000001</v>
+        <v>-8776.2173</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.0315</v>
+        <v>-0.032</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -4178,34 +4178,34 @@
         <v>12.4613</v>
       </c>
       <c r="C10" s="1">
-        <v>12.4613</v>
+        <v>12.4364</v>
       </c>
       <c r="D10" s="1">
-        <v>12.4613</v>
+        <v>12.4863</v>
       </c>
       <c r="E10" s="1">
-        <v>6089.7733</v>
+        <v>6077.5154</v>
       </c>
       <c r="F10" s="1">
-        <v>900.8896999999999</v>
+        <v>898.8878</v>
       </c>
       <c r="G10" s="1">
         <v>95593.31690000001</v>
       </c>
       <c r="H10" s="1">
-        <v>75886.492</v>
+        <v>75582.4123</v>
       </c>
       <c r="I10" s="1">
-        <v>1226.2563</v>
+        <v>1223.7827</v>
       </c>
       <c r="J10" s="1">
-        <v>77112.74830000001</v>
+        <v>76806.19500000001</v>
       </c>
       <c r="K10" s="1">
-        <v>80603.851</v>
+        <v>80602.6456</v>
       </c>
       <c r="L10" s="1">
-        <v>13.2359</v>
+        <v>13.2624</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -4217,10 +4217,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-11226.2563</v>
+        <v>-11223.7827</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.0042</v>
+        <v>-0.0047</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -4231,34 +4231,34 @@
         <v>12.6545</v>
       </c>
       <c r="C11" s="1">
-        <v>12.6545</v>
+        <v>12.6292</v>
       </c>
       <c r="D11" s="1">
-        <v>12.6545</v>
+        <v>12.6799</v>
       </c>
       <c r="E11" s="1">
-        <v>6990.663</v>
+        <v>6976.4032</v>
       </c>
       <c r="F11" s="1">
-        <v>790.2327</v>
+        <v>788.6498</v>
       </c>
       <c r="G11" s="1">
         <v>107027.2167</v>
       </c>
       <c r="H11" s="1">
-        <v>88463.3444</v>
+        <v>88106.391</v>
       </c>
       <c r="I11" s="1">
         <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>88463.3444</v>
+        <v>88106.391</v>
       </c>
       <c r="K11" s="1">
-        <v>91830.1072</v>
+        <v>91826.4283</v>
       </c>
       <c r="L11" s="1">
-        <v>13.1361</v>
+        <v>13.1624</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -4273,7 +4273,7 @@
         <v>-10000</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0155</v>
+        <v>0.015</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -4284,49 +4284,49 @@
         <v>12.2345</v>
       </c>
       <c r="C12" s="1">
-        <v>12.2345</v>
+        <v>12.21</v>
       </c>
       <c r="D12" s="1">
-        <v>12.2345</v>
+        <v>12.259</v>
       </c>
       <c r="E12" s="1">
-        <v>7780.8957</v>
+        <v>7765.0529</v>
       </c>
       <c r="F12" s="1">
-        <v>817.3607</v>
+        <v>815.7272</v>
       </c>
       <c r="G12" s="1">
         <v>118632.6249</v>
       </c>
       <c r="H12" s="1">
-        <v>95195.3682</v>
+        <v>94811.2963</v>
       </c>
       <c r="I12" s="1">
         <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>95195.3682</v>
+        <v>94811.2963</v>
       </c>
       <c r="K12" s="1">
-        <v>101830.1072</v>
+        <v>101826.4283</v>
       </c>
       <c r="L12" s="1">
-        <v>13.0872</v>
+        <v>13.1134</v>
       </c>
       <c r="M12" s="1">
         <v>0.3</v>
       </c>
       <c r="N12" s="1">
-        <v>1887.479</v>
+        <v>1883.6289</v>
       </c>
       <c r="O12" s="1">
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-8112.521</v>
+        <v>-8116.3711</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0332</v>
+        <v>-0.0336</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -4337,34 +4337,34 @@
         <v>12.1636</v>
       </c>
       <c r="C13" s="1">
-        <v>12.1636</v>
+        <v>12.1393</v>
       </c>
       <c r="D13" s="1">
-        <v>12.1636</v>
+        <v>12.188</v>
       </c>
       <c r="E13" s="1">
-        <v>8598.2564</v>
+        <v>8580.780199999999</v>
       </c>
       <c r="F13" s="1">
-        <v>977.2994</v>
+        <v>975.027</v>
       </c>
       <c r="G13" s="1">
         <v>130412.1143</v>
       </c>
       <c r="H13" s="1">
-        <v>104585.7518</v>
+        <v>104164.6645</v>
       </c>
       <c r="I13" s="1">
-        <v>1887.479</v>
+        <v>1883.6289</v>
       </c>
       <c r="J13" s="1">
-        <v>106473.2308</v>
+        <v>106048.2934</v>
       </c>
       <c r="K13" s="1">
-        <v>111830.1072</v>
+        <v>111826.4283</v>
       </c>
       <c r="L13" s="1">
-        <v>13.0061</v>
+        <v>13.0322</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -4376,10 +4376,10 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-11887.479</v>
+        <v>-11883.6289</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0121</v>
+        <v>0.0118</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -4390,34 +4390,34 @@
         <v>11.8145</v>
       </c>
       <c r="C14" s="1">
-        <v>11.8145</v>
+        <v>11.7909</v>
       </c>
       <c r="D14" s="1">
-        <v>11.8145</v>
+        <v>11.8382</v>
       </c>
       <c r="E14" s="1">
-        <v>9575.5558</v>
+        <v>9555.8071</v>
       </c>
       <c r="F14" s="1">
-        <v>-9575.5558</v>
+        <v>-9555.8071</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>113130.4043</v>
+        <v>112671.5664</v>
       </c>
       <c r="I14" s="1">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>113130.4043</v>
+        <v>112671.5664</v>
       </c>
       <c r="K14" s="1">
-        <v>123717.5862</v>
+        <v>123710.0571</v>
       </c>
       <c r="L14" s="1">
-        <v>12.9201</v>
+        <v>12.9461</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -4429,10 +4429,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>113130.4043</v>
+        <v>112671.5664</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0287</v>
+        <v>-0.0291</v>
       </c>
     </row>
   </sheetData>
@@ -4452,7 +4452,7 @@
     <col min="2" max="2" width="8.7109375" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" customWidth="1"/>
     <col min="6" max="6" width="10.7109375" customWidth="1"/>
     <col min="7" max="7" width="10.7109375" customWidth="1"/>
   </cols>
@@ -4490,19 +4490,19 @@
         <v>24</v>
       </c>
       <c r="C3" s="1">
-        <v>12.9182</v>
+        <v>12.9441</v>
       </c>
       <c r="D3" s="1">
-        <v>12.919</v>
+        <v>12.9451</v>
       </c>
       <c r="E3" s="1">
-        <v>12.9196</v>
+        <v>12.9457</v>
       </c>
       <c r="F3" s="1">
-        <v>12.9202</v>
+        <v>12.9461</v>
       </c>
       <c r="G3" s="1">
-        <v>12.9201</v>
+        <v>12.9461</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
@@ -4513,19 +4513,19 @@
         <v>-0.1113</v>
       </c>
       <c r="C4" s="3">
-        <v>-0.0655</v>
+        <v>-0.0781</v>
       </c>
       <c r="D4" s="3">
-        <v>-0.0653</v>
+        <v>-0.07779999999999999</v>
       </c>
       <c r="E4" s="3">
-        <v>-0.0653</v>
+        <v>-0.07779999999999999</v>
       </c>
       <c r="F4" s="3">
-        <v>-0.0654</v>
+        <v>-0.0779</v>
       </c>
       <c r="G4" s="3">
-        <v>-0.0653</v>
+        <v>-0.0779</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1">
@@ -4536,19 +4536,19 @@
         <v>0.074</v>
       </c>
       <c r="C5" s="3">
-        <v>0.0713</v>
+        <v>0.0701</v>
       </c>
       <c r="D5" s="3">
-        <v>0.0716</v>
+        <v>0.0704</v>
       </c>
       <c r="E5" s="3">
-        <v>0.0716</v>
+        <v>0.0704</v>
       </c>
       <c r="F5" s="3">
-        <v>0.0717</v>
+        <v>0.0704</v>
       </c>
       <c r="G5" s="3">
-        <v>0.0717</v>
+        <v>0.0704</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1">
@@ -4559,19 +4559,19 @@
         <v>-1.7773</v>
       </c>
       <c r="C6" s="4">
-        <v>-1.2039</v>
+        <v>-1.4037</v>
       </c>
       <c r="D6" s="4">
-        <v>-1.1959</v>
+        <v>-1.3938</v>
       </c>
       <c r="E6" s="4">
-        <v>-1.1958</v>
+        <v>-1.3939</v>
       </c>
       <c r="F6" s="4">
-        <v>-1.1957</v>
+        <v>-1.3941</v>
       </c>
       <c r="G6" s="4">
-        <v>-1.1948</v>
+        <v>-1.3942</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1">
@@ -4579,19 +4579,19 @@
         <v>28</v>
       </c>
       <c r="C7" s="3">
-        <v>-0.1052</v>
+        <v>-0.112</v>
       </c>
       <c r="D7" s="3">
-        <v>-0.1045</v>
+        <v>-0.1113</v>
       </c>
       <c r="E7" s="3">
-        <v>-0.1045</v>
+        <v>-0.1113</v>
       </c>
       <c r="F7" s="3">
-        <v>-0.1045</v>
+        <v>-0.1113</v>
       </c>
       <c r="G7" s="3">
-        <v>-0.1044</v>
+        <v>-0.1113</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1">
@@ -4599,19 +4599,19 @@
         <v>29</v>
       </c>
       <c r="C8" s="1">
-        <v>3681.3191</v>
+        <v>3673.9353</v>
       </c>
       <c r="D8" s="1">
-        <v>3709.5206</v>
+        <v>3704.4058</v>
       </c>
       <c r="E8" s="1">
-        <v>3712.385</v>
+        <v>3707.2757</v>
       </c>
       <c r="F8" s="1">
-        <v>3715.2577</v>
+        <v>3710.2585</v>
       </c>
       <c r="G8" s="1">
-        <v>3717.5862</v>
+        <v>3710.0571</v>
       </c>
     </row>
   </sheetData>

--- a/output/1Y_P65_KFSDIV.xlsx
+++ b/output/1Y_P65_KFSDIV.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="31">
   <si>
     <t>NAV</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>Dividend</t>
+  </si>
+  <si>
+    <t>Wealth/Cost</t>
   </si>
 </sst>
 </file>
@@ -721,7 +724,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>13.2487</v>
@@ -765,7 +768,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>13.3991</v>
@@ -815,7 +818,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>13.5985</v>
@@ -865,7 +868,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>13.6955</v>
@@ -915,7 +918,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>13.3398</v>
@@ -965,7 +968,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>12.8469</v>
@@ -1015,7 +1018,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>13.129</v>
@@ -1065,7 +1068,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>12.716</v>
@@ -1115,7 +1118,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>12.4613</v>
@@ -1165,7 +1168,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>12.6545</v>
@@ -1215,7 +1218,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>12.2345</v>
@@ -1265,7 +1268,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>12.1636</v>
@@ -1315,7 +1318,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>11.8145</v>
@@ -1450,7 +1453,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>13.2487</v>
@@ -1497,7 +1500,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>13.3991</v>
@@ -1550,7 +1553,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>13.5985</v>
@@ -1603,7 +1606,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>13.6955</v>
@@ -1656,7 +1659,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>13.3398</v>
@@ -1709,7 +1712,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>12.8469</v>
@@ -1762,7 +1765,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>13.129</v>
@@ -1815,7 +1818,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>12.716</v>
@@ -1868,7 +1871,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>12.4613</v>
@@ -1921,7 +1924,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>12.6545</v>
@@ -1974,7 +1977,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>12.2345</v>
@@ -2027,7 +2030,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>12.1636</v>
@@ -2080,7 +2083,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>11.8145</v>
@@ -2218,7 +2221,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>13.2487</v>
@@ -2265,7 +2268,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>13.3991</v>
@@ -2318,7 +2321,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>13.5985</v>
@@ -2371,7 +2374,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>13.6955</v>
@@ -2424,7 +2427,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>13.3398</v>
@@ -2477,7 +2480,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>12.8469</v>
@@ -2530,7 +2533,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>13.129</v>
@@ -2583,7 +2586,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>12.716</v>
@@ -2636,7 +2639,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>12.4613</v>
@@ -2689,7 +2692,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>12.6545</v>
@@ -2742,7 +2745,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>12.2345</v>
@@ -2795,7 +2798,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>12.1636</v>
@@ -2848,7 +2851,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>11.8145</v>
@@ -2986,7 +2989,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>13.2487</v>
@@ -3033,7 +3036,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>13.3991</v>
@@ -3086,7 +3089,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>13.5985</v>
@@ -3139,7 +3142,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>13.6955</v>
@@ -3192,7 +3195,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>13.3398</v>
@@ -3245,7 +3248,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>12.8469</v>
@@ -3298,7 +3301,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>13.129</v>
@@ -3351,7 +3354,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>12.716</v>
@@ -3404,7 +3407,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>12.4613</v>
@@ -3457,7 +3460,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>12.6545</v>
@@ -3510,7 +3513,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>12.2345</v>
@@ -3563,7 +3566,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>12.1636</v>
@@ -3616,7 +3619,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>11.8145</v>
@@ -3754,7 +3757,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>13.2487</v>
@@ -3801,7 +3804,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>13.3991</v>
@@ -3854,7 +3857,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>13.5985</v>
@@ -3907,7 +3910,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>13.6955</v>
@@ -3960,7 +3963,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>13.3398</v>
@@ -4013,7 +4016,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>12.8469</v>
@@ -4066,7 +4069,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>13.129</v>
@@ -4119,7 +4122,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>12.716</v>
@@ -4172,7 +4175,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>12.4613</v>
@@ -4225,7 +4228,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>12.6545</v>
@@ -4278,7 +4281,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>12.2345</v>
@@ -4331,7 +4334,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>12.1636</v>
@@ -4384,7 +4387,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>11.8145</v>
@@ -4442,13 +4445,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" customWidth="1"/>
     <col min="3" max="3" width="8.7109375" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" customWidth="1"/>
@@ -4614,6 +4617,26 @@
         <v>4625.3654</v>
       </c>
     </row>
+    <row r="9" spans="1:7" s="4" customFormat="1">
+      <c r="A9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0.9111</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0.9109</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0.9109</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0.9109</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0.9108000000000001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
